--- a/windows_form_app/TEST_CALENDAR_EXCEL_WEEK.xlsx
+++ b/windows_form_app/TEST_CALENDAR_EXCEL_WEEK.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R1a43ebb660fc488b"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R9b528f7613d849a1"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -20,325 +20,325 @@
     <x:t>W 1</x:t>
   </x:si>
   <x:si>
-    <x:t>22/3/2019</x:t>
+    <x:t>23/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 2</x:t>
   </x:si>
   <x:si>
-    <x:t>23/3/2019</x:t>
+    <x:t>24/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 3</x:t>
   </x:si>
   <x:si>
-    <x:t>24/3/2019</x:t>
+    <x:t>25/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 4</x:t>
   </x:si>
   <x:si>
-    <x:t>25/3/2019</x:t>
+    <x:t>26/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 5</x:t>
   </x:si>
   <x:si>
-    <x:t>26/3/2019</x:t>
+    <x:t>27/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 6</x:t>
   </x:si>
   <x:si>
-    <x:t>27/3/2019</x:t>
+    <x:t>28/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 7</x:t>
   </x:si>
   <x:si>
-    <x:t>28/3/2019</x:t>
+    <x:t>29/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 8</x:t>
   </x:si>
   <x:si>
-    <x:t>29/3/2019</x:t>
+    <x:t>30/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 9</x:t>
   </x:si>
   <x:si>
-    <x:t>30/3/2019</x:t>
+    <x:t>31/3/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 10</x:t>
   </x:si>
   <x:si>
-    <x:t>31/3/2019</x:t>
+    <x:t>1/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 11</x:t>
   </x:si>
   <x:si>
-    <x:t>32/3/2019</x:t>
+    <x:t>2/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 12</x:t>
   </x:si>
   <x:si>
-    <x:t>33/3/2019</x:t>
+    <x:t>3/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 13</x:t>
   </x:si>
   <x:si>
-    <x:t>34/3/2019</x:t>
+    <x:t>4/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 14</x:t>
   </x:si>
   <x:si>
-    <x:t>35/3/2019</x:t>
+    <x:t>5/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 15</x:t>
   </x:si>
   <x:si>
-    <x:t>36/3/2019</x:t>
+    <x:t>6/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 16</x:t>
   </x:si>
   <x:si>
-    <x:t>37/3/2019</x:t>
+    <x:t>7/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 17</x:t>
   </x:si>
   <x:si>
-    <x:t>38/3/2019</x:t>
+    <x:t>8/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 18</x:t>
   </x:si>
   <x:si>
-    <x:t>39/3/2019</x:t>
+    <x:t>9/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 19</x:t>
   </x:si>
   <x:si>
-    <x:t>40/3/2019</x:t>
+    <x:t>10/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 20</x:t>
   </x:si>
   <x:si>
-    <x:t>41/3/2019</x:t>
+    <x:t>11/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 21</x:t>
   </x:si>
   <x:si>
-    <x:t>42/3/2019</x:t>
+    <x:t>12/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 22</x:t>
   </x:si>
   <x:si>
-    <x:t>43/3/2019</x:t>
+    <x:t>13/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 23</x:t>
   </x:si>
   <x:si>
-    <x:t>44/3/2019</x:t>
+    <x:t>14/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 24</x:t>
   </x:si>
   <x:si>
-    <x:t>45/3/2019</x:t>
+    <x:t>15/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 25</x:t>
   </x:si>
   <x:si>
-    <x:t>46/3/2019</x:t>
+    <x:t>16/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 26</x:t>
   </x:si>
   <x:si>
-    <x:t>47/3/2019</x:t>
+    <x:t>17/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 27</x:t>
   </x:si>
   <x:si>
-    <x:t>48/3/2019</x:t>
+    <x:t>18/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 28</x:t>
   </x:si>
   <x:si>
-    <x:t>49/3/2019</x:t>
+    <x:t>19/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 29</x:t>
   </x:si>
   <x:si>
-    <x:t>50/3/2019</x:t>
+    <x:t>20/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 30</x:t>
   </x:si>
   <x:si>
-    <x:t>51/3/2019</x:t>
+    <x:t>21/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 31</x:t>
   </x:si>
   <x:si>
-    <x:t>52/3/2019</x:t>
+    <x:t>22/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 32</x:t>
   </x:si>
   <x:si>
-    <x:t>53/3/2019</x:t>
+    <x:t>23/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 33</x:t>
   </x:si>
   <x:si>
-    <x:t>54/3/2019</x:t>
+    <x:t>24/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 34</x:t>
   </x:si>
   <x:si>
-    <x:t>55/3/2019</x:t>
+    <x:t>25/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 35</x:t>
   </x:si>
   <x:si>
-    <x:t>56/3/2019</x:t>
+    <x:t>26/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 36</x:t>
   </x:si>
   <x:si>
-    <x:t>57/3/2019</x:t>
+    <x:t>27/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 37</x:t>
   </x:si>
   <x:si>
-    <x:t>58/3/2019</x:t>
+    <x:t>28/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 38</x:t>
   </x:si>
   <x:si>
-    <x:t>59/3/2019</x:t>
+    <x:t>29/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 39</x:t>
   </x:si>
   <x:si>
-    <x:t>60/3/2019</x:t>
+    <x:t>30/4/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 40</x:t>
   </x:si>
   <x:si>
-    <x:t>61/3/2019</x:t>
+    <x:t>1/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 41</x:t>
   </x:si>
   <x:si>
-    <x:t>62/3/2019</x:t>
+    <x:t>2/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 42</x:t>
   </x:si>
   <x:si>
-    <x:t>63/3/2019</x:t>
+    <x:t>3/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 43</x:t>
   </x:si>
   <x:si>
-    <x:t>64/3/2019</x:t>
+    <x:t>4/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 44</x:t>
   </x:si>
   <x:si>
-    <x:t>65/3/2019</x:t>
+    <x:t>5/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 45</x:t>
   </x:si>
   <x:si>
-    <x:t>66/3/2019</x:t>
+    <x:t>6/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 46</x:t>
   </x:si>
   <x:si>
-    <x:t>67/3/2019</x:t>
+    <x:t>7/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 47</x:t>
   </x:si>
   <x:si>
-    <x:t>68/3/2019</x:t>
+    <x:t>8/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 48</x:t>
   </x:si>
   <x:si>
-    <x:t>69/3/2019</x:t>
+    <x:t>9/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 49</x:t>
   </x:si>
   <x:si>
-    <x:t>70/3/2019</x:t>
+    <x:t>10/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 50</x:t>
   </x:si>
   <x:si>
-    <x:t>71/3/2019</x:t>
+    <x:t>11/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 51</x:t>
   </x:si>
   <x:si>
-    <x:t>72/3/2019</x:t>
+    <x:t>12/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 52</x:t>
   </x:si>
   <x:si>
-    <x:t>73/3/2019</x:t>
+    <x:t>13/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 53</x:t>
   </x:si>
   <x:si>
-    <x:t>74/3/2019</x:t>
+    <x:t>14/5/2019</x:t>
   </x:si>
   <x:si>
     <x:t>W 54</x:t>
   </x:si>
   <x:si>
-    <x:t>75/3/2019</x:t>
+    <x:t>15/5/2019</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -678,7 +678,7 @@
 
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:BB1370"/>
+  <x:dimension ref="A1:BB3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -1087,378 +1087,11 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="371">
-    <x:mergeCell ref="B10:H10"/>
-    <x:mergeCell ref="B11:H11"/>
-    <x:mergeCell ref="B12:H12"/>
-    <x:mergeCell ref="B13:H13"/>
-    <x:mergeCell ref="B14:H14"/>
-    <x:mergeCell ref="B15:H15"/>
-    <x:mergeCell ref="B16:H16"/>
-    <x:mergeCell ref="B17:H17"/>
-    <x:mergeCell ref="B18:H18"/>
-    <x:mergeCell ref="B19:H19"/>
-    <x:mergeCell ref="B110:H110"/>
-    <x:mergeCell ref="B111:H111"/>
-    <x:mergeCell ref="B112:H112"/>
-    <x:mergeCell ref="B113:H113"/>
-    <x:mergeCell ref="B114:H114"/>
-    <x:mergeCell ref="B115:H115"/>
-    <x:mergeCell ref="B116:H116"/>
-    <x:mergeCell ref="B117:H117"/>
-    <x:mergeCell ref="B118:H118"/>
-    <x:mergeCell ref="B119:H119"/>
-    <x:mergeCell ref="B120:H120"/>
-    <x:mergeCell ref="B121:H121"/>
-    <x:mergeCell ref="B122:H122"/>
-    <x:mergeCell ref="B123:H123"/>
-    <x:mergeCell ref="B124:H124"/>
-    <x:mergeCell ref="B125:H125"/>
-    <x:mergeCell ref="B126:H126"/>
-    <x:mergeCell ref="B127:H127"/>
-    <x:mergeCell ref="B128:H128"/>
-    <x:mergeCell ref="B129:H129"/>
-    <x:mergeCell ref="B130:H130"/>
-    <x:mergeCell ref="B131:H131"/>
-    <x:mergeCell ref="B132:H132"/>
-    <x:mergeCell ref="B133:H133"/>
-    <x:mergeCell ref="B134:H134"/>
-    <x:mergeCell ref="B135:H135"/>
-    <x:mergeCell ref="B136:H136"/>
-    <x:mergeCell ref="B137:H137"/>
-    <x:mergeCell ref="B138:H138"/>
-    <x:mergeCell ref="B139:H139"/>
-    <x:mergeCell ref="B140:H140"/>
-    <x:mergeCell ref="B141:H141"/>
-    <x:mergeCell ref="B142:H142"/>
-    <x:mergeCell ref="B143:H143"/>
-    <x:mergeCell ref="B144:H144"/>
-    <x:mergeCell ref="B145:H145"/>
-    <x:mergeCell ref="B146:H146"/>
-    <x:mergeCell ref="B147:H147"/>
-    <x:mergeCell ref="B148:H148"/>
-    <x:mergeCell ref="B149:H149"/>
-    <x:mergeCell ref="B150:H150"/>
-    <x:mergeCell ref="B151:H151"/>
-    <x:mergeCell ref="B152:H152"/>
-    <x:mergeCell ref="B153:H153"/>
-    <x:mergeCell ref="B154:H154"/>
-    <x:mergeCell ref="B155:H155"/>
-    <x:mergeCell ref="B156:H156"/>
-    <x:mergeCell ref="B157:H157"/>
-    <x:mergeCell ref="B158:H158"/>
-    <x:mergeCell ref="B159:H159"/>
-    <x:mergeCell ref="B160:H160"/>
-    <x:mergeCell ref="B161:H161"/>
-    <x:mergeCell ref="B162:H162"/>
-    <x:mergeCell ref="B163:H163"/>
-    <x:mergeCell ref="B164:H164"/>
-    <x:mergeCell ref="B165:H165"/>
-    <x:mergeCell ref="B166:H166"/>
-    <x:mergeCell ref="B167:H167"/>
-    <x:mergeCell ref="B168:H168"/>
-    <x:mergeCell ref="B169:H169"/>
-    <x:mergeCell ref="B170:H170"/>
-    <x:mergeCell ref="B171:H171"/>
-    <x:mergeCell ref="B172:H172"/>
-    <x:mergeCell ref="B173:H173"/>
-    <x:mergeCell ref="B174:H174"/>
-    <x:mergeCell ref="B175:H175"/>
-    <x:mergeCell ref="B176:H176"/>
-    <x:mergeCell ref="B177:H177"/>
-    <x:mergeCell ref="B178:H178"/>
-    <x:mergeCell ref="B179:H179"/>
-    <x:mergeCell ref="B180:H180"/>
-    <x:mergeCell ref="B181:H181"/>
-    <x:mergeCell ref="B182:H182"/>
-    <x:mergeCell ref="B183:H183"/>
-    <x:mergeCell ref="B184:H184"/>
-    <x:mergeCell ref="B185:H185"/>
-    <x:mergeCell ref="B186:H186"/>
-    <x:mergeCell ref="B187:H187"/>
-    <x:mergeCell ref="B188:H188"/>
-    <x:mergeCell ref="B189:H189"/>
-    <x:mergeCell ref="B190:H190"/>
-    <x:mergeCell ref="B191:H191"/>
-    <x:mergeCell ref="B192:H192"/>
-    <x:mergeCell ref="B193:H193"/>
-    <x:mergeCell ref="B194:H194"/>
-    <x:mergeCell ref="B195:H195"/>
-    <x:mergeCell ref="B196:H196"/>
-    <x:mergeCell ref="B197:H197"/>
-    <x:mergeCell ref="B198:H198"/>
-    <x:mergeCell ref="B199:H199"/>
-    <x:mergeCell ref="B1100:H1100"/>
-    <x:mergeCell ref="B1101:H1101"/>
-    <x:mergeCell ref="B1102:H1102"/>
-    <x:mergeCell ref="B1103:H1103"/>
-    <x:mergeCell ref="B1104:H1104"/>
-    <x:mergeCell ref="B1105:H1105"/>
-    <x:mergeCell ref="B1106:H1106"/>
-    <x:mergeCell ref="B1107:H1107"/>
-    <x:mergeCell ref="B1108:H1108"/>
-    <x:mergeCell ref="B1109:H1109"/>
-    <x:mergeCell ref="B1110:H1110"/>
-    <x:mergeCell ref="B1111:H1111"/>
-    <x:mergeCell ref="B1112:H1112"/>
-    <x:mergeCell ref="B1113:H1113"/>
-    <x:mergeCell ref="B1114:H1114"/>
-    <x:mergeCell ref="B1115:H1115"/>
-    <x:mergeCell ref="B1116:H1116"/>
-    <x:mergeCell ref="B1117:H1117"/>
-    <x:mergeCell ref="B1118:H1118"/>
-    <x:mergeCell ref="B1119:H1119"/>
-    <x:mergeCell ref="B1120:H1120"/>
-    <x:mergeCell ref="B1121:H1121"/>
-    <x:mergeCell ref="B1122:H1122"/>
-    <x:mergeCell ref="B1123:H1123"/>
-    <x:mergeCell ref="B1124:H1124"/>
-    <x:mergeCell ref="B1125:H1125"/>
-    <x:mergeCell ref="B1126:H1126"/>
-    <x:mergeCell ref="B1127:H1127"/>
-    <x:mergeCell ref="B1128:H1128"/>
-    <x:mergeCell ref="B1129:H1129"/>
-    <x:mergeCell ref="B1130:H1130"/>
-    <x:mergeCell ref="B1131:H1131"/>
-    <x:mergeCell ref="B1132:H1132"/>
-    <x:mergeCell ref="B1133:H1133"/>
-    <x:mergeCell ref="B1134:H1134"/>
-    <x:mergeCell ref="B1135:H1135"/>
-    <x:mergeCell ref="B1136:H1136"/>
-    <x:mergeCell ref="B1137:H1137"/>
-    <x:mergeCell ref="B1138:H1138"/>
-    <x:mergeCell ref="B1139:H1139"/>
-    <x:mergeCell ref="B1140:H1140"/>
-    <x:mergeCell ref="B1141:H1141"/>
-    <x:mergeCell ref="B1142:H1142"/>
-    <x:mergeCell ref="B1143:H1143"/>
-    <x:mergeCell ref="B1144:H1144"/>
-    <x:mergeCell ref="B1145:H1145"/>
-    <x:mergeCell ref="B1146:H1146"/>
-    <x:mergeCell ref="B1147:H1147"/>
-    <x:mergeCell ref="B1148:H1148"/>
-    <x:mergeCell ref="B1149:H1149"/>
-    <x:mergeCell ref="B1150:H1150"/>
-    <x:mergeCell ref="B1151:H1151"/>
-    <x:mergeCell ref="B1152:H1152"/>
-    <x:mergeCell ref="B1153:H1153"/>
-    <x:mergeCell ref="B1154:H1154"/>
-    <x:mergeCell ref="B1155:H1155"/>
-    <x:mergeCell ref="B1156:H1156"/>
-    <x:mergeCell ref="B1157:H1157"/>
-    <x:mergeCell ref="B1158:H1158"/>
-    <x:mergeCell ref="B1159:H1159"/>
-    <x:mergeCell ref="B1160:H1160"/>
-    <x:mergeCell ref="B1161:H1161"/>
-    <x:mergeCell ref="B1162:H1162"/>
-    <x:mergeCell ref="B1163:H1163"/>
-    <x:mergeCell ref="B1164:H1164"/>
-    <x:mergeCell ref="B1165:H1165"/>
-    <x:mergeCell ref="B1166:H1166"/>
-    <x:mergeCell ref="B1167:H1167"/>
-    <x:mergeCell ref="B1168:H1168"/>
-    <x:mergeCell ref="B1169:H1169"/>
-    <x:mergeCell ref="B1170:H1170"/>
-    <x:mergeCell ref="B1171:H1171"/>
-    <x:mergeCell ref="B1172:H1172"/>
-    <x:mergeCell ref="B1173:H1173"/>
-    <x:mergeCell ref="B1174:H1174"/>
-    <x:mergeCell ref="B1175:H1175"/>
-    <x:mergeCell ref="B1176:H1176"/>
-    <x:mergeCell ref="B1177:H1177"/>
-    <x:mergeCell ref="B1178:H1178"/>
-    <x:mergeCell ref="B1179:H1179"/>
-    <x:mergeCell ref="B1180:H1180"/>
-    <x:mergeCell ref="B1181:H1181"/>
-    <x:mergeCell ref="B1182:H1182"/>
-    <x:mergeCell ref="B1183:H1183"/>
-    <x:mergeCell ref="B1184:H1184"/>
-    <x:mergeCell ref="B1185:H1185"/>
-    <x:mergeCell ref="B1186:H1186"/>
-    <x:mergeCell ref="B1187:H1187"/>
-    <x:mergeCell ref="B1188:H1188"/>
-    <x:mergeCell ref="B1189:H1189"/>
-    <x:mergeCell ref="B1190:H1190"/>
-    <x:mergeCell ref="B1191:H1191"/>
-    <x:mergeCell ref="B1192:H1192"/>
-    <x:mergeCell ref="B1193:H1193"/>
-    <x:mergeCell ref="B1194:H1194"/>
-    <x:mergeCell ref="B1195:H1195"/>
-    <x:mergeCell ref="B1196:H1196"/>
-    <x:mergeCell ref="B1197:H1197"/>
-    <x:mergeCell ref="B1198:H1198"/>
-    <x:mergeCell ref="B1199:H1199"/>
-    <x:mergeCell ref="B1200:H1200"/>
-    <x:mergeCell ref="B1201:H1201"/>
-    <x:mergeCell ref="B1202:H1202"/>
-    <x:mergeCell ref="B1203:H1203"/>
-    <x:mergeCell ref="B1204:H1204"/>
-    <x:mergeCell ref="B1205:H1205"/>
-    <x:mergeCell ref="B1206:H1206"/>
-    <x:mergeCell ref="B1207:H1207"/>
-    <x:mergeCell ref="B1208:H1208"/>
-    <x:mergeCell ref="B1209:H1209"/>
-    <x:mergeCell ref="B1210:H1210"/>
-    <x:mergeCell ref="B1211:H1211"/>
-    <x:mergeCell ref="B1212:H1212"/>
-    <x:mergeCell ref="B1213:H1213"/>
-    <x:mergeCell ref="B1214:H1214"/>
-    <x:mergeCell ref="B1215:H1215"/>
-    <x:mergeCell ref="B1216:H1216"/>
-    <x:mergeCell ref="B1217:H1217"/>
-    <x:mergeCell ref="B1218:H1218"/>
-    <x:mergeCell ref="B1219:H1219"/>
-    <x:mergeCell ref="B1220:H1220"/>
-    <x:mergeCell ref="B1221:H1221"/>
-    <x:mergeCell ref="B1222:H1222"/>
-    <x:mergeCell ref="B1223:H1223"/>
-    <x:mergeCell ref="B1224:H1224"/>
-    <x:mergeCell ref="B1225:H1225"/>
-    <x:mergeCell ref="B1226:H1226"/>
-    <x:mergeCell ref="B1227:H1227"/>
-    <x:mergeCell ref="B1228:H1228"/>
-    <x:mergeCell ref="B1229:H1229"/>
-    <x:mergeCell ref="B1230:H1230"/>
-    <x:mergeCell ref="B1231:H1231"/>
-    <x:mergeCell ref="B1232:H1232"/>
-    <x:mergeCell ref="B1233:H1233"/>
-    <x:mergeCell ref="B1234:H1234"/>
-    <x:mergeCell ref="B1235:H1235"/>
-    <x:mergeCell ref="B1236:H1236"/>
-    <x:mergeCell ref="B1237:H1237"/>
-    <x:mergeCell ref="B1238:H1238"/>
-    <x:mergeCell ref="B1239:H1239"/>
-    <x:mergeCell ref="B1240:H1240"/>
-    <x:mergeCell ref="B1241:H1241"/>
-    <x:mergeCell ref="B1242:H1242"/>
-    <x:mergeCell ref="B1243:H1243"/>
-    <x:mergeCell ref="B1244:H1244"/>
-    <x:mergeCell ref="B1245:H1245"/>
-    <x:mergeCell ref="B1246:H1246"/>
-    <x:mergeCell ref="B1247:H1247"/>
-    <x:mergeCell ref="B1248:H1248"/>
-    <x:mergeCell ref="B1249:H1249"/>
-    <x:mergeCell ref="B1250:H1250"/>
-    <x:mergeCell ref="B1251:H1251"/>
-    <x:mergeCell ref="B1252:H1252"/>
-    <x:mergeCell ref="B1253:H1253"/>
-    <x:mergeCell ref="B1254:H1254"/>
-    <x:mergeCell ref="B1255:H1255"/>
-    <x:mergeCell ref="B1256:H1256"/>
-    <x:mergeCell ref="B1257:H1257"/>
-    <x:mergeCell ref="B1258:H1258"/>
-    <x:mergeCell ref="B1259:H1259"/>
-    <x:mergeCell ref="B1260:H1260"/>
-    <x:mergeCell ref="B1261:H1261"/>
-    <x:mergeCell ref="B1262:H1262"/>
-    <x:mergeCell ref="B1263:H1263"/>
-    <x:mergeCell ref="B1264:H1264"/>
-    <x:mergeCell ref="B1265:H1265"/>
-    <x:mergeCell ref="B1266:H1266"/>
-    <x:mergeCell ref="B1267:H1267"/>
-    <x:mergeCell ref="B1268:H1268"/>
-    <x:mergeCell ref="B1269:H1269"/>
-    <x:mergeCell ref="B1270:H1270"/>
-    <x:mergeCell ref="B1271:H1271"/>
-    <x:mergeCell ref="B1272:H1272"/>
-    <x:mergeCell ref="B1273:H1273"/>
-    <x:mergeCell ref="B1274:H1274"/>
-    <x:mergeCell ref="B1275:H1275"/>
-    <x:mergeCell ref="B1276:H1276"/>
-    <x:mergeCell ref="B1277:H1277"/>
-    <x:mergeCell ref="B1278:H1278"/>
-    <x:mergeCell ref="B1279:H1279"/>
-    <x:mergeCell ref="B1280:H1280"/>
-    <x:mergeCell ref="B1281:H1281"/>
-    <x:mergeCell ref="B1282:H1282"/>
-    <x:mergeCell ref="B1283:H1283"/>
-    <x:mergeCell ref="B1284:H1284"/>
-    <x:mergeCell ref="B1285:H1285"/>
-    <x:mergeCell ref="B1286:H1286"/>
-    <x:mergeCell ref="B1287:H1287"/>
-    <x:mergeCell ref="B1288:H1288"/>
-    <x:mergeCell ref="B1289:H1289"/>
-    <x:mergeCell ref="B1290:H1290"/>
-    <x:mergeCell ref="B1291:H1291"/>
-    <x:mergeCell ref="B1292:H1292"/>
-    <x:mergeCell ref="B1293:H1293"/>
-    <x:mergeCell ref="B1294:H1294"/>
-    <x:mergeCell ref="B1295:H1295"/>
-    <x:mergeCell ref="B1296:H1296"/>
-    <x:mergeCell ref="B1297:H1297"/>
-    <x:mergeCell ref="B1298:H1298"/>
-    <x:mergeCell ref="B1299:H1299"/>
-    <x:mergeCell ref="B1300:H1300"/>
-    <x:mergeCell ref="B1301:H1301"/>
-    <x:mergeCell ref="B1302:H1302"/>
-    <x:mergeCell ref="B1303:H1303"/>
-    <x:mergeCell ref="B1304:H1304"/>
-    <x:mergeCell ref="B1305:H1305"/>
-    <x:mergeCell ref="B1306:H1306"/>
-    <x:mergeCell ref="B1307:H1307"/>
-    <x:mergeCell ref="B1308:H1308"/>
-    <x:mergeCell ref="B1309:H1309"/>
-    <x:mergeCell ref="B1310:H1310"/>
-    <x:mergeCell ref="B1311:H1311"/>
-    <x:mergeCell ref="B1312:H1312"/>
-    <x:mergeCell ref="B1313:H1313"/>
-    <x:mergeCell ref="B1314:H1314"/>
-    <x:mergeCell ref="B1315:H1315"/>
-    <x:mergeCell ref="B1316:H1316"/>
-    <x:mergeCell ref="B1317:H1317"/>
-    <x:mergeCell ref="B1318:H1318"/>
-    <x:mergeCell ref="B1319:H1319"/>
-    <x:mergeCell ref="B1320:H1320"/>
-    <x:mergeCell ref="B1321:H1321"/>
-    <x:mergeCell ref="B1322:H1322"/>
-    <x:mergeCell ref="B1323:H1323"/>
-    <x:mergeCell ref="B1324:H1324"/>
-    <x:mergeCell ref="B1325:H1325"/>
-    <x:mergeCell ref="B1326:H1326"/>
-    <x:mergeCell ref="B1327:H1327"/>
-    <x:mergeCell ref="B1328:H1328"/>
-    <x:mergeCell ref="B1329:H1329"/>
-    <x:mergeCell ref="B1330:H1330"/>
-    <x:mergeCell ref="B1331:H1331"/>
-    <x:mergeCell ref="B1332:H1332"/>
-    <x:mergeCell ref="B1333:H1333"/>
-    <x:mergeCell ref="B1334:H1334"/>
-    <x:mergeCell ref="B1335:H1335"/>
-    <x:mergeCell ref="B1336:H1336"/>
-    <x:mergeCell ref="B1337:H1337"/>
-    <x:mergeCell ref="B1338:H1338"/>
-    <x:mergeCell ref="B1339:H1339"/>
-    <x:mergeCell ref="B1340:H1340"/>
-    <x:mergeCell ref="B1341:H1341"/>
-    <x:mergeCell ref="B1342:H1342"/>
-    <x:mergeCell ref="B1343:H1343"/>
-    <x:mergeCell ref="B1344:H1344"/>
-    <x:mergeCell ref="B1345:H1345"/>
-    <x:mergeCell ref="B1346:H1346"/>
-    <x:mergeCell ref="B1347:H1347"/>
-    <x:mergeCell ref="B1348:H1348"/>
-    <x:mergeCell ref="B1349:H1349"/>
-    <x:mergeCell ref="B1350:H1350"/>
-    <x:mergeCell ref="B1351:H1351"/>
-    <x:mergeCell ref="B1352:H1352"/>
-    <x:mergeCell ref="B1353:H1353"/>
-    <x:mergeCell ref="B1354:H1354"/>
-    <x:mergeCell ref="B1355:H1355"/>
-    <x:mergeCell ref="B1356:H1356"/>
-    <x:mergeCell ref="B1357:H1357"/>
-    <x:mergeCell ref="B1358:H1358"/>
-    <x:mergeCell ref="B1359:H1359"/>
-    <x:mergeCell ref="B1360:H1360"/>
-    <x:mergeCell ref="B1361:H1361"/>
-    <x:mergeCell ref="B1362:H1362"/>
-    <x:mergeCell ref="B1363:H1363"/>
-    <x:mergeCell ref="B1364:H1364"/>
-    <x:mergeCell ref="B1365:H1365"/>
-    <x:mergeCell ref="B1366:H1366"/>
-    <x:mergeCell ref="B1367:H1367"/>
-    <x:mergeCell ref="B1368:H1368"/>
-    <x:mergeCell ref="B1369:H1369"/>
-    <x:mergeCell ref="B1370:H1370"/>
+  <x:mergeCells count="4">
+    <x:mergeCell ref="B1:H1"/>
+    <x:mergeCell ref="I1:O1"/>
+    <x:mergeCell ref="P1:X1"/>
+    <x:mergeCell ref="Y1:AF1"/>
   </x:mergeCells>
 </x:worksheet>
 </file>
--- a/windows_form_app/TEST_CALENDAR_EXCEL_WEEK.xlsx
+++ b/windows_form_app/TEST_CALENDAR_EXCEL_WEEK.xlsx
@@ -6,13 +6,13 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R9b528f7613d849a1"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R75e57a7b284749c2"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="731">
   <x:si>
     <x:t xml:space="preserve">W </x:t>
   </x:si>
@@ -339,6 +339,1872 @@
   </x:si>
   <x:si>
     <x:t>15/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 62</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 68</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/5/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 79</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 87</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/6/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 103</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 104</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 105</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 106</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 108</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 109</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 113</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 114</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 115</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 118</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 122</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 127</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 129</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 130</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/7/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 134</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 142</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 144</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 146</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 148</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 152</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 153</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 157</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 159</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/8/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 163</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 182</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 185</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 189</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 191</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/9/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 198</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 203</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 204</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 214</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 215</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 217</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 218</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 223</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/10/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 224</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 239</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 240</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 241</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 243</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 244</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 249</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 253</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/11/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/12/2019</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 290</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 304</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 306</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 309</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 310</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 311</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 312</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 315</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31/1/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 316</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 317</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 318</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 319</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 322</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 327</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 333</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 338</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 342</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29/2/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 345</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 346</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 348</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 351</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 354</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 357</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 358</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 361</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 362</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 363</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20/3/2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>W 365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21/3/2020</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -678,174 +2544,36 @@
 
 <file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:BB3"/>
+  <x:dimension ref="A1:NA5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1">
-      <x:c r="A1" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="B1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="F1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="H1" t="s">
-        <x:v>15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="K1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="M1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="N1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="O1" t="s">
-        <x:v>29</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="P1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="R1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="S1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="T1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="U1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="V1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="W1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="X1" t="s">
-        <x:v>47</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="Y1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="Z1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="AA1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="AB1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="AC1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AD1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="AE1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="AF1" t="s">
-        <x:v>63</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="AG1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="AH1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AI1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="AJ1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="AK1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="AL1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AM1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="AN1" t="s">
-        <x:v>79</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="AO1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AP1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="AQ1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="AR1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="AS1" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="AT1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="AU1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="AV1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="AW1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="AX1" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="AY1" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="AZ1" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="BA1" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="BB1" t="s">
-        <x:v>107</x:v>
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="BC1" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="BQ1" t="s">
+        <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
@@ -1011,87 +2739,955 @@
       <x:c r="BB2" s="1" t="s">
         <x:v>108</x:v>
       </x:c>
+      <x:c r="BC2" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="BD2" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="BE2" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="BF2" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="BG2" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="BH2" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="BI2" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="BJ2" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="BK2" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="BL2" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="BM2" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="BN2" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="BO2" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="BP2" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="BQ2" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="BR2" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="BS2" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="BT2" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="BU2" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="BV2" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="BW2" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="BX2" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="BY2" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="BZ2" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="CA2" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="CB2" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="CC2" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="CD2" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="CE2" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="CF2" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="CG2" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="CH2" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="CI2" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="CJ2" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="CK2" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="CL2" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="CM2" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="CN2" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="CO2" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="CP2" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="CQ2" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="CR2" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="CS2" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="CT2" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="CU2" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="CV2" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="CW2" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="CX2" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="CY2" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="CZ2" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="DA2" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="DB2" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="DC2" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="DD2" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="DE2" s="1" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="DF2" s="1" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="DG2" s="1" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="DH2" s="1" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="DI2" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="DJ2" s="1" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="DK2" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="DL2" s="1" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="DM2" s="1" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="DN2" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="DO2" s="1" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="DP2" s="1" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="DQ2" s="1" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="DR2" s="1" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="DS2" s="1" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="DT2" s="1" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="DU2" s="1" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="DV2" s="1" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="DW2" s="1" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="DX2" s="1" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="DY2" s="1" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="DZ2" s="1" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="EA2" s="1" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="EB2" s="1" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="EC2" s="1" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="ED2" s="1" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="EE2" s="1" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="EF2" s="1" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="EG2" s="1" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="EH2" s="1" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="EI2" s="1" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="EJ2" s="1" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="EK2" s="1" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="EL2" s="1" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="EM2" s="1" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="EN2" s="1" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="EO2" s="1" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="EP2" s="1" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="EQ2" s="1" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="ER2" s="1" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="ES2" s="1" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="ET2" s="1" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="EU2" s="1" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="EV2" s="1" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="EW2" s="1" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="EX2" s="1" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="EY2" s="1" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="EZ2" s="1" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="FA2" s="1" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="FB2" s="1" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="FC2" s="1" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="FD2" s="1" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="FE2" s="1" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="FF2" s="1" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="FG2" s="1" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="FH2" s="1" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="FI2" s="1" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="FJ2" s="1" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="FK2" s="1" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="FL2" s="1" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="FM2" s="1" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="FN2" s="1" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="FO2" s="1" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="FP2" s="1" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="FQ2" s="1" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="FR2" s="1" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="FS2" s="1" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="FT2" s="1" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="FU2" s="1" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="FV2" s="1" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="FW2" s="1" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="FX2" s="1" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="FY2" s="1" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="FZ2" s="1" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="GA2" s="1" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="GB2" s="1" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="GC2" s="1" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="GD2" s="1" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="GE2" s="1" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="GF2" s="1" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="GG2" s="1" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="GH2" s="1" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="GI2" s="1" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="GJ2" s="1" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="GK2" s="1" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="GL2" s="1" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="GM2" s="1" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="GN2" s="1" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="GO2" s="1" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="GP2" s="1" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="GQ2" s="1" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="GR2" s="1" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="GS2" s="1" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="GT2" s="1" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="GU2" s="1" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="GV2" s="1" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="GW2" s="1" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="GX2" s="1" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="GY2" s="1" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="GZ2" s="1" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="HA2" s="1" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="HB2" s="1" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="HC2" s="1" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="HD2" s="1" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="HE2" s="1" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="HF2" s="1" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="HG2" s="1" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="HH2" s="1" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="HI2" s="1" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="HJ2" s="1" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="HK2" s="1" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="HL2" s="1" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="HM2" s="1" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="HN2" s="1" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="HO2" s="1" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="HP2" s="1" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="HQ2" s="1" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="HR2" s="1" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="HS2" s="1" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="HT2" s="1" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="HU2" s="1" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="HV2" s="1" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="HW2" s="1" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="HX2" s="1" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="HY2" s="1" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="HZ2" s="1" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="IA2" s="1" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="IB2" s="1" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="IC2" s="1" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="ID2" s="1" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="IE2" s="1" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="IF2" s="1" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="IG2" s="1" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="IH2" s="1" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="II2" s="1" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="IJ2" s="1" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="IK2" s="1" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="IL2" s="1" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="IM2" s="1" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="IN2" s="1" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="IO2" s="1" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="IP2" s="1" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="IQ2" s="1" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="IR2" s="1" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="IS2" s="1" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="IT2" s="1" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="IU2" s="1" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="IV2" s="1" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="IW2" s="1" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="IX2" s="1" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="IY2" s="1" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="IZ2" s="1" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="JA2" s="1" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="JB2" s="1" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="JC2" s="1" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="JD2" s="1" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="JE2" s="1" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="JF2" s="1" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="JG2" s="1" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="JH2" s="1" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="JI2" s="1" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="JJ2" s="1" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="JK2" s="1" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="JL2" s="1" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="JM2" s="1" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="JN2" s="1" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="JO2" s="1" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="JP2" s="1" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="JQ2" s="1" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="JR2" s="1" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="JS2" s="1" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="JT2" s="1" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="JU2" s="1" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="JV2" s="1" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="JW2" s="1" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="JX2" s="1" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="JY2" s="1" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="JZ2" s="1" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="KA2" s="1" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="KB2" s="1" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="KC2" s="1" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="KD2" s="1" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="KE2" s="1" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="KF2" s="1" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="KG2" s="1" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="KH2" s="1" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="KI2" s="1" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="KJ2" s="1" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="KK2" s="1" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="KL2" s="1" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="KM2" s="1" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="KN2" s="1" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="KO2" s="1" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="KP2" s="1" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="KQ2" s="1" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="KR2" s="1" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="KS2" s="1" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="KT2" s="1" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="KU2" s="1" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="KV2" s="1" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="KW2" s="1" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="KX2" s="1" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="KY2" s="1" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="KZ2" s="1" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="LA2" s="1" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="LB2" s="1" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="LC2" s="1" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="LD2" s="1" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="LE2" s="1" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="LF2" s="1" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="LG2" s="1" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="LH2" s="1" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="LI2" s="1" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="LJ2" s="1" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="LK2" s="1" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="LL2" s="1" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="LM2" s="1" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="LN2" s="1" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="LO2" s="1" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="LP2" s="1" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="LQ2" s="1" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="LR2" s="1" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="LS2" s="1" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="LT2" s="1" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="LU2" s="1" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="LV2" s="1" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="LW2" s="1" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="LX2" s="1" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="LY2" s="1" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="LZ2" s="1" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="MA2" s="1" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="MB2" s="1" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="MC2" s="1" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="MD2" s="1" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="ME2" s="1" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="MF2" s="1" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="MG2" s="1" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="MH2" s="1" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="MI2" s="1" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="MJ2" s="1" t="s">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="MK2" s="1" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="ML2" s="1" t="s">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="MM2" s="1" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="MN2" s="1" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="MO2" s="1" t="s">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="MP2" s="1" t="s">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="MQ2" s="1" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="MR2" s="1" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="MS2" s="1" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="MT2" s="1" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="MU2" s="1" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="MV2" s="1" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="MW2" s="1" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="MX2" s="1" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="MY2" s="1" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="MZ2" s="1" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="NA2" s="1" t="s">
+        <x:v>730</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3">
-      <x:c r="A3">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C3">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D3">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E3">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F3">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="G3">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="H3">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J3">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="K3">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="L3">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="M3">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="N3">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="O3">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="P3">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="Q3">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="R3">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="S3">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="T3">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="U3">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="V3">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="W3">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="X3">
-        <x:v>25</x:v>
+    <x:row r="5">
+      <x:c r="B5" t="s">
+        <x:v>729</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="4">
+  <x:mergeCells count="8">
     <x:mergeCell ref="B1:H1"/>
     <x:mergeCell ref="I1:O1"/>
     <x:mergeCell ref="P1:X1"/>
     <x:mergeCell ref="Y1:AF1"/>
+    <x:mergeCell ref="AG1:AN1"/>
+    <x:mergeCell ref="AO1:AV1"/>
+    <x:mergeCell ref="BC1:BJ1"/>
+    <x:mergeCell ref="BQ1:BX1"/>
   </x:mergeCells>
 </x:worksheet>
 </file>